--- a/run/output/iecodebook/auto_export_trim.xlsx
+++ b/run/output/iecodebook/auto_export_trim.xlsx
@@ -14,7 +14,2047 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="746">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -260,86 +2300,86 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>721</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>727</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>716</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>722</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>728</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>717</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>723</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>729</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>718</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>724</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>730</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>719</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>725</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>730</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>720</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>726</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>731</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -353,35 +2393,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>738</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>740</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>739</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>741</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>739</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>742</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>

--- a/run/output/iecodebook/auto_export_trim.xlsx
+++ b/run/output/iecodebook/auto_export_trim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="777">
   <si>
     <t>name</t>
   </si>
@@ -2120,6 +2120,99 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mileage (mpg)</t>
+  </si>
+  <si>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Length (in.)</t>
+  </si>
+  <si>
+    <t>Car type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
   </si>
   <si>
     <t/>
@@ -2300,86 +2393,86 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="B1" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="C1" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="D1" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="C2" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="D2" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="B3" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="C3" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="D3" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="C4" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="D4" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="C5" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="D5" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="B6" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="C6" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="D6" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -2393,35 +2486,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="B1" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="C1" t="s">
-        <v>743</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="B2" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="C2" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="B3" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="C3" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/run/output/iecodebook/auto_export_trim.xlsx
+++ b/run/output/iecodebook/auto_export_trim.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1893" uniqueCount="779">
   <si>
     <t>name</t>
   </si>
@@ -2345,12 +2345,18 @@
   </si>
   <si>
     <t>Foreign</t>
+  </si>
+  <si>
+    <t>Gear ratio</t>
+  </si>
+  <si>
+    <t>Car origin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -2387,8 +2393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2396,7 +2405,7 @@
         <v>746</v>
       </c>
       <c r="B1" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="C1" t="s">
         <v>758</v>
@@ -2413,10 +2422,10 @@
         <v>753</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3">
@@ -2427,10 +2436,10 @@
         <v>754</v>
       </c>
       <c r="C3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4">
@@ -2444,7 +2453,7 @@
         <v>761</v>
       </c>
       <c r="D4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5">
@@ -2466,13 +2475,13 @@
         <v>751</v>
       </c>
       <c r="B6" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="C6" t="s">
         <v>762</v>
       </c>
       <c r="D6" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -2480,8 +2489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">

--- a/run/output/iecodebook/auto_export_trim.xlsx
+++ b/run/output/iecodebook/auto_export_trim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1893" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2000" uniqueCount="779">
   <si>
     <t>name</t>
   </si>
